--- a/Changes for MOM.xlsx
+++ b/Changes for MOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\University\Masters\Thesis Code\Inverting-Method-of-Moments\deep-bispectrum-inversion-develop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Desktop\University\Masters\Thesis Code\Inverting-Method-of-Moments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00D50CC-F7DE-48EC-A067-FD98DB4D9B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF4547A-6E81-4215-8C91-3BDEBCDF9FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>File name</t>
   </si>
@@ -71,6 +71,9 @@
   </si>
   <si>
     <t>Change self.calculator to call a third moment calculation function instead of a bispectrum</t>
+  </si>
+  <si>
+    <t>48-49</t>
   </si>
 </sst>
 </file>
@@ -398,10 +401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,6 +457,17 @@
       </c>
       <c r="D3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
